--- a/Annotations/New/TheWayOfShadows.xlsx
+++ b/Annotations/New/TheWayOfShadows.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\New\Annotated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Annotations\New\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="wayshadows" sheetId="1" r:id="rId1"/>
@@ -1199,14 +1199,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P88"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L84" sqref="L84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="44" style="2" customWidth="1"/>
     <col min="4" max="4" width="54" style="1" customWidth="1"/>
     <col min="5" max="5" width="56.33203125" style="2" customWidth="1"/>
@@ -1271,7 +1272,7 @@
     <row r="2" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <f t="shared" ref="A2:A33" ca="1" si="0">RAND()</f>
-        <v>0.19896482077063349</v>
+        <v>8.8356946498099664E-2</v>
       </c>
       <c r="B2" s="2">
         <v>24</v>
@@ -1289,7 +1290,7 @@
     <row r="3" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73020237880294525</v>
+        <v>0.55806237257571423</v>
       </c>
       <c r="B3" s="2">
         <v>41</v>
@@ -1307,7 +1308,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6781240918949401E-4</v>
+        <v>0.37705544848042805</v>
       </c>
       <c r="B4" s="2">
         <v>9</v>
@@ -1325,7 +1326,7 @@
     <row r="5" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99384155778490713</v>
+        <v>4.562052896090929E-2</v>
       </c>
       <c r="B5" s="2">
         <v>39</v>
@@ -1343,7 +1344,7 @@
     <row r="6" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76105005301129769</v>
+        <v>0.99623400173494381</v>
       </c>
       <c r="B6" s="2">
         <v>34</v>
@@ -1361,7 +1362,7 @@
     <row r="7" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66801059696975806</v>
+        <v>0.63648577500178605</v>
       </c>
       <c r="B7" s="2">
         <v>31</v>
@@ -1379,7 +1380,7 @@
     <row r="8" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62647026671825767</v>
+        <v>0.27596975410893354</v>
       </c>
       <c r="B8" s="2">
         <v>79</v>
@@ -1397,7 +1398,7 @@
     <row r="9" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80657972358896679</v>
+        <v>0.42400719589164304</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
@@ -1415,7 +1416,7 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25538918669814503</v>
+        <v>0.59709385408636606</v>
       </c>
       <c r="B10" s="2">
         <v>74</v>
@@ -1433,7 +1434,7 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50976999443609228</v>
+        <v>0.80631898691041648</v>
       </c>
       <c r="B11" s="2">
         <v>81</v>
@@ -1451,7 +1452,7 @@
     <row r="12" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9995381747313149</v>
+        <v>0.74018993483244178</v>
       </c>
       <c r="B12" s="2">
         <v>87</v>
@@ -1469,7 +1470,7 @@
     <row r="13" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61688740301210165</v>
+        <v>0.277703548666554</v>
       </c>
       <c r="B13" s="2">
         <v>86</v>
@@ -1487,7 +1488,7 @@
     <row r="14" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94189254309736625</v>
+        <v>0.15136476856261516</v>
       </c>
       <c r="B14" s="2">
         <v>8</v>
@@ -1505,7 +1506,7 @@
     <row r="15" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44535059990408754</v>
+        <v>0.52750390738491482</v>
       </c>
       <c r="B15" s="2">
         <v>77</v>
@@ -1523,7 +1524,7 @@
     <row r="16" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58485565295073205</v>
+        <v>0.71937902555938837</v>
       </c>
       <c r="B16" s="2">
         <v>21</v>
@@ -1541,7 +1542,7 @@
     <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95110798466778212</v>
+        <v>0.56492633980679818</v>
       </c>
       <c r="B17" s="2">
         <v>48</v>
@@ -1559,7 +1560,7 @@
     <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41469103019281239</v>
+        <v>0.9710555946466759</v>
       </c>
       <c r="B18" s="2">
         <v>26</v>
@@ -1577,7 +1578,7 @@
     <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79029902592198054</v>
+        <v>0.1406496097571075</v>
       </c>
       <c r="B19" s="2">
         <v>33</v>
@@ -1595,7 +1596,7 @@
     <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60807256182983904</v>
+        <v>0.3150920557824104</v>
       </c>
       <c r="B20" s="2">
         <v>67</v>
@@ -1613,7 +1614,7 @@
     <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70383551416481593</v>
+        <v>0.61366012511267476</v>
       </c>
       <c r="B21" s="2">
         <v>20</v>
@@ -1631,7 +1632,7 @@
     <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4575885712833343</v>
+        <v>0.48957503852672057</v>
       </c>
       <c r="B22" s="2">
         <v>40</v>
@@ -1649,7 +1650,7 @@
     <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40904294187006951</v>
+        <v>0.34065415986172254</v>
       </c>
       <c r="B23" s="2">
         <v>3</v>
@@ -1667,7 +1668,7 @@
     <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5746503656144093</v>
+        <v>0.8566899431642947</v>
       </c>
       <c r="B24" s="2">
         <v>15</v>
@@ -1685,7 +1686,7 @@
     <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22673702756613612</v>
+        <v>0.74234451688149539</v>
       </c>
       <c r="B25" s="2">
         <v>50</v>
@@ -1703,7 +1704,7 @@
     <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8283903526403037</v>
+        <v>0.86113841813572156</v>
       </c>
       <c r="B26" s="2">
         <v>46</v>
@@ -1721,7 +1722,7 @@
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96633083303436029</v>
+        <v>0.1440966725644881</v>
       </c>
       <c r="B27" s="2">
         <v>76</v>
@@ -1739,7 +1740,7 @@
     <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43284393388399034</v>
+        <v>0.68655162654479485</v>
       </c>
       <c r="B28" s="2">
         <v>14</v>
@@ -1757,7 +1758,7 @@
     <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26032624401791249</v>
+        <v>0.26854342575050272</v>
       </c>
       <c r="B29" s="2">
         <v>49</v>
@@ -1775,7 +1776,7 @@
     <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83249611185257666</v>
+        <v>0.66485741418467437</v>
       </c>
       <c r="B30" s="2">
         <v>63</v>
@@ -1793,7 +1794,7 @@
     <row r="31" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63464335598910893</v>
+        <v>0.24016987173688187</v>
       </c>
       <c r="B31" s="2">
         <v>37</v>
@@ -1811,7 +1812,7 @@
     <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29097062411913865</v>
+        <v>0.24132583406336705</v>
       </c>
       <c r="B32" s="2">
         <v>61</v>
@@ -1829,7 +1830,7 @@
     <row r="33" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1707906549506425</v>
+        <v>0.72878034461456065</v>
       </c>
       <c r="B33" s="2">
         <v>45</v>
@@ -1847,7 +1848,7 @@
     <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <f t="shared" ref="A34:A65" ca="1" si="1">RAND()</f>
-        <v>0.42091314416532721</v>
+        <v>0.35327410801088732</v>
       </c>
       <c r="B34" s="2">
         <v>58</v>
@@ -1865,7 +1866,7 @@
     <row r="35" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72512977512394317</v>
+        <v>0.74493200615567046</v>
       </c>
       <c r="B35" s="2">
         <v>55</v>
@@ -1892,7 +1893,7 @@
     <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36708783912008547</v>
+        <v>0.25099460371283544</v>
       </c>
       <c r="B36" s="2">
         <v>51</v>
@@ -1916,7 +1917,7 @@
     <row r="37" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53338020630537708</v>
+        <v>0.777832318623631</v>
       </c>
       <c r="B37" s="2">
         <v>66</v>
@@ -1943,7 +1944,7 @@
     <row r="38" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1833685349445302</v>
+        <v>0.12244933336349217</v>
       </c>
       <c r="B38" s="2">
         <v>32</v>
@@ -1967,7 +1968,7 @@
     <row r="39" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78844514894574058</v>
+        <v>0.9717109758992728</v>
       </c>
       <c r="B39" s="2">
         <v>70</v>
@@ -1991,7 +1992,7 @@
     <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62250714720405254</v>
+        <v>0.52339453282164627</v>
       </c>
       <c r="B40" s="2">
         <v>71</v>
@@ -2015,7 +2016,7 @@
     <row r="41" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61979432300690729</v>
+        <v>0.14816430917965606</v>
       </c>
       <c r="B41" s="2">
         <v>85</v>
@@ -2042,7 +2043,7 @@
     <row r="42" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6367716737552479</v>
+        <v>0.82102848487565017</v>
       </c>
       <c r="B42" s="2">
         <v>4</v>
@@ -2066,7 +2067,7 @@
     <row r="43" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78806011935247688</v>
+        <v>0.42586153160459783</v>
       </c>
       <c r="B43" s="2">
         <v>35</v>
@@ -2093,7 +2094,7 @@
     <row r="44" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50270556415042056</v>
+        <v>0.40547018663625256</v>
       </c>
       <c r="B44" s="2">
         <v>7</v>
@@ -2117,7 +2118,7 @@
     <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38383810183170108</v>
+        <v>0.97266044629119852</v>
       </c>
       <c r="B45" s="2">
         <v>22</v>
@@ -2141,7 +2142,7 @@
     <row r="46" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59045520953407182</v>
+        <v>0.85303694917482431</v>
       </c>
       <c r="B46" s="2">
         <v>64</v>
@@ -2165,7 +2166,7 @@
     <row r="47" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62410635845012175</v>
+        <v>0.88499639512837647</v>
       </c>
       <c r="B47" s="2">
         <v>68</v>
@@ -2192,7 +2193,7 @@
     <row r="48" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96672722005729594</v>
+        <v>0.89892516807840528</v>
       </c>
       <c r="B48" s="2">
         <v>53</v>
@@ -2216,7 +2217,7 @@
     <row r="49" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64968881536064227</v>
+        <v>0.43821205504954219</v>
       </c>
       <c r="B49" s="2">
         <v>52</v>
@@ -2243,7 +2244,7 @@
     <row r="50" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95246142484004248</v>
+        <v>0.61141822766388587</v>
       </c>
       <c r="B50" s="2">
         <v>36</v>
@@ -2267,7 +2268,7 @@
     <row r="51" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84470629876171788</v>
+        <v>0.29997183796898863</v>
       </c>
       <c r="B51" s="2">
         <v>38</v>
@@ -2288,7 +2289,7 @@
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36204115719644958</v>
+        <v>0.75472897219629831</v>
       </c>
       <c r="B52" s="2">
         <v>80</v>
@@ -2312,7 +2313,7 @@
     <row r="53" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9.6200838750477247E-2</v>
+        <v>0.65454309837353342</v>
       </c>
       <c r="B53" s="2">
         <v>25</v>
@@ -2339,7 +2340,7 @@
     <row r="54" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90914354108555573</v>
+        <v>0.33675328152347495</v>
       </c>
       <c r="B54" s="2">
         <v>59</v>
@@ -2363,7 +2364,7 @@
     <row r="55" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6.3175947162151136E-2</v>
+        <v>0.81084725564610638</v>
       </c>
       <c r="B55" s="2">
         <v>60</v>
@@ -2390,7 +2391,7 @@
     <row r="56" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15653613660864396</v>
+        <v>0.98345111082430725</v>
       </c>
       <c r="B56" s="2">
         <v>54</v>
@@ -2414,7 +2415,7 @@
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48009824073423157</v>
+        <v>0.24716860471393209</v>
       </c>
       <c r="B57" s="2">
         <v>83</v>
@@ -2438,7 +2439,7 @@
     <row r="58" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43946567975491879</v>
+        <v>0.82031818079758201</v>
       </c>
       <c r="B58" s="2">
         <v>10</v>
@@ -2462,7 +2463,7 @@
     <row r="59" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36924837043586378</v>
+        <v>0.4379970328560493</v>
       </c>
       <c r="B59" s="2">
         <v>19</v>
@@ -2489,7 +2490,7 @@
     <row r="60" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75318543017484718</v>
+        <v>5.9823759477185323E-2</v>
       </c>
       <c r="B60" s="2">
         <v>13</v>
@@ -2513,7 +2514,7 @@
     <row r="61" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80327403838804778</v>
+        <v>0.77157285195017633</v>
       </c>
       <c r="B61" s="2">
         <v>65</v>
@@ -2537,7 +2538,7 @@
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52566451927624969</v>
+        <v>0.50260830894138664</v>
       </c>
       <c r="B62" s="2">
         <v>29</v>
@@ -2561,7 +2562,7 @@
     <row r="63" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48424614538453747</v>
+        <v>0.82295065226775277</v>
       </c>
       <c r="B63" s="2">
         <v>28</v>
@@ -2585,7 +2586,7 @@
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10618601198022359</v>
+        <v>0.53555087782093702</v>
       </c>
       <c r="B64" s="2">
         <v>82</v>
@@ -2606,7 +2607,7 @@
     <row r="65" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9963074137640977</v>
+        <v>0.45664959046701659</v>
       </c>
       <c r="B65" s="2">
         <v>78</v>
@@ -2630,7 +2631,7 @@
     <row r="66" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <f t="shared" ref="A66:A88" ca="1" si="2">RAND()</f>
-        <v>0.58738809704054806</v>
+        <v>0.51936825517099272</v>
       </c>
       <c r="B66" s="2">
         <v>5</v>
@@ -2654,7 +2655,7 @@
     <row r="67" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.101069750722102</v>
+        <v>0.96829067268952629</v>
       </c>
       <c r="B67" s="2">
         <v>84</v>
@@ -2678,7 +2679,7 @@
     <row r="68" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6.6047952728724324E-2</v>
+        <v>0.95902590429210099</v>
       </c>
       <c r="B68" s="2">
         <v>69</v>
@@ -2702,7 +2703,7 @@
     <row r="69" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.72010428924334935</v>
+        <v>0.43561237363696925</v>
       </c>
       <c r="B69" s="2">
         <v>75</v>
@@ -2726,7 +2727,7 @@
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.7340699780339066E-2</v>
+        <v>0.36222263757769213</v>
       </c>
       <c r="B70" s="2">
         <v>23</v>
@@ -2750,7 +2751,7 @@
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31894733131144182</v>
+        <v>0.48756877009997512</v>
       </c>
       <c r="B71" s="2">
         <v>27</v>
@@ -2777,7 +2778,7 @@
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.98663033347175222</v>
+        <v>0.53997237626853001</v>
       </c>
       <c r="B72" s="2">
         <v>73</v>
@@ -2801,7 +2802,7 @@
     <row r="73" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7.1209818632282706E-2</v>
+        <v>0.71684232266297898</v>
       </c>
       <c r="B73" s="2">
         <v>42</v>
@@ -2828,7 +2829,7 @@
     <row r="74" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.7929874803479966</v>
+        <v>0.97434118727728292</v>
       </c>
       <c r="B74" s="2">
         <v>12</v>
@@ -2855,7 +2856,7 @@
     <row r="75" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.85690608614846087</v>
+        <v>0.50245043114137367</v>
       </c>
       <c r="B75" s="2">
         <v>43</v>
@@ -2879,7 +2880,7 @@
     <row r="76" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.25887776424622022</v>
+        <v>0.40605741656591665</v>
       </c>
       <c r="B76" s="2">
         <v>47</v>
@@ -2906,7 +2907,7 @@
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49283184338329222</v>
+        <v>0.98079701718673618</v>
       </c>
       <c r="B77" s="2">
         <v>17</v>
@@ -2933,7 +2934,7 @@
     <row r="78" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39088808088297489</v>
+        <v>0.39253233442996815</v>
       </c>
       <c r="B78" s="2">
         <v>18</v>
@@ -2957,7 +2958,7 @@
     <row r="79" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.73144195208968155</v>
+        <v>0.17971633471744231</v>
       </c>
       <c r="B79" s="2">
         <v>44</v>
@@ -2984,7 +2985,7 @@
     <row r="80" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.9135454286735587</v>
+        <v>0.54470343116409736</v>
       </c>
       <c r="B80" s="2">
         <v>6</v>
@@ -3008,7 +3009,7 @@
     <row r="81" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.26952189772073365</v>
+        <v>0.5005993519404015</v>
       </c>
       <c r="B81" s="2">
         <v>57</v>
@@ -3035,7 +3036,7 @@
     <row r="82" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.55926198991892928</v>
+        <v>0.3686964808163361</v>
       </c>
       <c r="B82" s="2">
         <v>11</v>
@@ -3062,7 +3063,7 @@
     <row r="83" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.81410560030287926</v>
+        <v>0.94536017593088273</v>
       </c>
       <c r="B83" s="2">
         <v>30</v>
@@ -3089,7 +3090,7 @@
     <row r="84" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.85258671124931062</v>
+        <v>9.1071809631543488E-2</v>
       </c>
       <c r="B84" s="2">
         <v>62</v>
@@ -3113,7 +3114,7 @@
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.23441261738359842</v>
+        <v>0.9371977874263806</v>
       </c>
       <c r="B85" s="2">
         <v>16</v>
@@ -3137,7 +3138,7 @@
     <row r="86" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2.7290178796434028E-2</v>
+        <v>0.5794194611169291</v>
       </c>
       <c r="B86" s="2">
         <v>1</v>
@@ -3158,7 +3159,7 @@
     <row r="87" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5158488871129927</v>
+        <v>0.4420106171921564</v>
       </c>
       <c r="B87" s="2">
         <v>72</v>
@@ -3185,7 +3186,7 @@
     <row r="88" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57792434488822242</v>
+        <v>0.41705719981198641</v>
       </c>
       <c r="B88" s="2">
         <v>56</v>
@@ -3351,7 +3352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+    <sheetView topLeftCell="A74" workbookViewId="0">
       <selection activeCell="A340" sqref="A89:XFD340"/>
     </sheetView>
   </sheetViews>
